--- a/Literatura.xlsx
+++ b/Literatura.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acuna\Dropbox\Observatorio de Percepciones Económicas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acuna\Dropbox\Observatorio de Percepciones Económicas\Literatura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4BA984-2037-43AC-9E27-2F322F106356}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253592A3-E27A-4DB1-8AB5-04008391C967}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8B0C767-6324-4008-98CB-D9303E612183}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
   <si>
     <t>Autor 1</t>
   </si>
@@ -259,6 +259,21 @@
   </si>
   <si>
     <t>https://repositoriodigital.bcentral.cl/xmlui/handle/20.500.12580/4867</t>
+  </si>
+  <si>
+    <t>del Pilar M</t>
+  </si>
+  <si>
+    <t>Peralta H</t>
+  </si>
+  <si>
+    <t>Ávila B</t>
+  </si>
+  <si>
+    <t>Análisis de Sentimiento Basado en el Informe de Percepciones de Negocios del Banco Central de Chile</t>
+  </si>
+  <si>
+    <t>https://www.bcentral.cl/en/web/banco-central/content/-/detalle/analisis-de-sentimiento-basado-en-el-informe-de-percepciones-de-negocios-del-banco-central-de-chile</t>
   </si>
 </sst>
 </file>
@@ -636,11 +651,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2235D4-8424-4B68-B70D-6727FF064B06}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,77 +915,83 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
       </c>
       <c r="E10" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
       </c>
       <c r="E12" s="2">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -981,19 +1002,19 @@
         <v>2009</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1001,59 +1022,56 @@
         <v>48</v>
       </c>
       <c r="E14" s="2">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -1065,10 +1083,40 @@
         <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J17">
+    <sortCondition ref="A2:A17"/>
+    <sortCondition ref="E2:E17"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{B5B0A2DA-BF41-44E6-8CB1-FFD0C842EB0D}"/>
     <hyperlink ref="J3" r:id="rId2" xr:uid="{3BAD3B94-0813-4422-8E2F-0B80509B870F}"/>
@@ -1078,15 +1126,16 @@
     <hyperlink ref="J7" r:id="rId6" xr:uid="{CEA33F0E-428C-4355-BD94-A03EDCE4C81D}"/>
     <hyperlink ref="J8" r:id="rId7" xr:uid="{050057B5-5715-4916-A5EA-F49F14C2FFF6}"/>
     <hyperlink ref="J9" r:id="rId8" xr:uid="{A9B2E8AD-B35C-4B7B-9CFA-C60C3E48FF8E}"/>
-    <hyperlink ref="J10" r:id="rId9" xr:uid="{C83BCA64-5987-4702-96B8-AA89D02EC606}"/>
-    <hyperlink ref="J11" r:id="rId10" xr:uid="{1338D021-D41F-4562-9459-F4EBED772CA2}"/>
-    <hyperlink ref="J12" r:id="rId11" xr:uid="{4F71322C-132C-4277-86B6-353B782DE677}"/>
-    <hyperlink ref="J13" r:id="rId12" xr:uid="{526B41A9-16F2-48C0-8BF7-B2AC43DE63F6}"/>
-    <hyperlink ref="J14" r:id="rId13" xr:uid="{1061C673-0AA4-4832-B13E-732AC630F304}"/>
-    <hyperlink ref="J15" r:id="rId14" xr:uid="{31B81946-E9AF-4893-9136-8784A247F4D8}"/>
-    <hyperlink ref="J16" r:id="rId15" xr:uid="{EFE3F3E9-20F8-4742-91AB-42B500018988}"/>
+    <hyperlink ref="J11" r:id="rId9" xr:uid="{C83BCA64-5987-4702-96B8-AA89D02EC606}"/>
+    <hyperlink ref="J12" r:id="rId10" xr:uid="{1338D021-D41F-4562-9459-F4EBED772CA2}"/>
+    <hyperlink ref="J13" r:id="rId11" xr:uid="{4F71322C-132C-4277-86B6-353B782DE677}"/>
+    <hyperlink ref="J14" r:id="rId12" xr:uid="{526B41A9-16F2-48C0-8BF7-B2AC43DE63F6}"/>
+    <hyperlink ref="J15" r:id="rId13" xr:uid="{1061C673-0AA4-4832-B13E-732AC630F304}"/>
+    <hyperlink ref="J16" r:id="rId14" xr:uid="{31B81946-E9AF-4893-9136-8784A247F4D8}"/>
+    <hyperlink ref="J17" r:id="rId15" xr:uid="{EFE3F3E9-20F8-4742-91AB-42B500018988}"/>
+    <hyperlink ref="J10" r:id="rId16" xr:uid="{5C357E62-6D38-4C8C-B570-29B66A8EC853}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/Literatura.xlsx
+++ b/Literatura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acuna\Dropbox\Observatorio de Percepciones Económicas\Literatura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253592A3-E27A-4DB1-8AB5-04008391C967}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FB3926-9AD4-44F0-A59C-DF84EE0BFB21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8B0C767-6324-4008-98CB-D9303E612183}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="88">
   <si>
     <t>Autor 1</t>
   </si>
@@ -274,6 +274,30 @@
   </si>
   <si>
     <t>https://www.bcentral.cl/en/web/banco-central/content/-/detalle/analisis-de-sentimiento-basado-en-el-informe-de-percepciones-de-negocios-del-banco-central-de-chile</t>
+  </si>
+  <si>
+    <t>Searching for the Best Inflation Forecasters within a Consumer Perceptions Survey: Microdata Evidence from Chile</t>
+  </si>
+  <si>
+    <t>Microeconomía</t>
+  </si>
+  <si>
+    <t>https://www.bcentral.cl/en/content/-/details/working-papers-n-899</t>
+  </si>
+  <si>
+    <t>Econometric Analysis on Survey-data-based Anchoring of Inflation Expectations in Chile</t>
+  </si>
+  <si>
+    <t>https://www.bcentral.cl/en/content/-/details/working-papers-n-825</t>
+  </si>
+  <si>
+    <t>https://www.bcentral.cl/en/content/-/details/working-papers-n-888</t>
+  </si>
+  <si>
+    <t>Faure F</t>
+  </si>
+  <si>
+    <t>Does the Exposure to the Business Cycle Improve Consumer Perceptions for Forecasting? Microdata Evidence from Chile</t>
   </si>
 </sst>
 </file>
@@ -651,11 +675,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2235D4-8424-4B68-B70D-6727FF064B06}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,178 +968,250 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
       </c>
       <c r="E13" s="2">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
         <v>20</v>
       </c>
       <c r="H17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
         <v>32</v>
       </c>
-      <c r="I17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J17">
-    <sortCondition ref="A2:A17"/>
-    <sortCondition ref="E2:E17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J20">
+    <sortCondition ref="A2:A20"/>
+    <sortCondition ref="E2:E20"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{B5B0A2DA-BF41-44E6-8CB1-FFD0C842EB0D}"/>
@@ -1126,16 +1222,19 @@
     <hyperlink ref="J7" r:id="rId6" xr:uid="{CEA33F0E-428C-4355-BD94-A03EDCE4C81D}"/>
     <hyperlink ref="J8" r:id="rId7" xr:uid="{050057B5-5715-4916-A5EA-F49F14C2FFF6}"/>
     <hyperlink ref="J9" r:id="rId8" xr:uid="{A9B2E8AD-B35C-4B7B-9CFA-C60C3E48FF8E}"/>
-    <hyperlink ref="J11" r:id="rId9" xr:uid="{C83BCA64-5987-4702-96B8-AA89D02EC606}"/>
-    <hyperlink ref="J12" r:id="rId10" xr:uid="{1338D021-D41F-4562-9459-F4EBED772CA2}"/>
-    <hyperlink ref="J13" r:id="rId11" xr:uid="{4F71322C-132C-4277-86B6-353B782DE677}"/>
-    <hyperlink ref="J14" r:id="rId12" xr:uid="{526B41A9-16F2-48C0-8BF7-B2AC43DE63F6}"/>
-    <hyperlink ref="J15" r:id="rId13" xr:uid="{1061C673-0AA4-4832-B13E-732AC630F304}"/>
-    <hyperlink ref="J16" r:id="rId14" xr:uid="{31B81946-E9AF-4893-9136-8784A247F4D8}"/>
-    <hyperlink ref="J17" r:id="rId15" xr:uid="{EFE3F3E9-20F8-4742-91AB-42B500018988}"/>
+    <hyperlink ref="J12" r:id="rId9" xr:uid="{C83BCA64-5987-4702-96B8-AA89D02EC606}"/>
+    <hyperlink ref="J13" r:id="rId10" xr:uid="{1338D021-D41F-4562-9459-F4EBED772CA2}"/>
+    <hyperlink ref="J16" r:id="rId11" xr:uid="{4F71322C-132C-4277-86B6-353B782DE677}"/>
+    <hyperlink ref="J17" r:id="rId12" xr:uid="{526B41A9-16F2-48C0-8BF7-B2AC43DE63F6}"/>
+    <hyperlink ref="J18" r:id="rId13" xr:uid="{1061C673-0AA4-4832-B13E-732AC630F304}"/>
+    <hyperlink ref="J19" r:id="rId14" xr:uid="{31B81946-E9AF-4893-9136-8784A247F4D8}"/>
+    <hyperlink ref="J20" r:id="rId15" xr:uid="{EFE3F3E9-20F8-4742-91AB-42B500018988}"/>
     <hyperlink ref="J10" r:id="rId16" xr:uid="{5C357E62-6D38-4C8C-B570-29B66A8EC853}"/>
+    <hyperlink ref="J15" r:id="rId17" xr:uid="{A2806556-C3B0-4D15-92FD-5BB5B6FCC757}"/>
+    <hyperlink ref="J14" r:id="rId18" xr:uid="{DAD3A0BC-03C6-4C61-901D-B527D36CDF2D}"/>
+    <hyperlink ref="J11" r:id="rId19" xr:uid="{222813F6-56E1-4AAD-8F50-094CFB58E4EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/Literatura.xlsx
+++ b/Literatura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acuna\Dropbox\Observatorio de Percepciones Económicas\Literatura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FB3926-9AD4-44F0-A59C-DF84EE0BFB21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B872A33F-3B5D-4845-AD59-49434E59FCFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8B0C767-6324-4008-98CB-D9303E612183}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="94">
   <si>
     <t>Autor 1</t>
   </si>
@@ -298,6 +298,24 @@
   </si>
   <si>
     <t>Does the Exposure to the Business Cycle Improve Consumer Perceptions for Forecasting? Microdata Evidence from Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surveying the survey: What can we learn about the effects of monetary policy on inflation expectations? </t>
+  </si>
+  <si>
+    <t>https://www.bcentral.cl/en/content/-/details/working-papers-n-889</t>
+  </si>
+  <si>
+    <t>https://www.bcentral.cl/en/content/-/details/working-papers-n-876</t>
+  </si>
+  <si>
+    <t>Madeira C</t>
+  </si>
+  <si>
+    <t>Measuring the perceived value of an MBA degree</t>
+  </si>
+  <si>
+    <t>Educación</t>
   </si>
 </sst>
 </file>
@@ -675,11 +693,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2235D4-8424-4B68-B70D-6727FF064B06}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:J20"/>
+      <selection pane="bottomLeft" sqref="A1:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,13 +1064,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="E14" s="2">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -1061,10 +1079,10 @@
         <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1072,10 +1090,10 @@
         <v>44</v>
       </c>
       <c r="E15" s="2">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -1084,33 +1102,33 @@
         <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2">
-        <v>2009</v>
+        <v>2021</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1121,19 +1139,19 @@
         <v>2009</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1141,77 +1159,123 @@
         <v>48</v>
       </c>
       <c r="E18" s="2">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G18" t="s">
         <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I18" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
         <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="I19" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>71</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E22" s="2">
         <v>2018</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F22" t="s">
         <v>73</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G22" t="s">
         <v>20</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H22" t="s">
         <v>32</v>
       </c>
-      <c r="I20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J20">
-    <sortCondition ref="A2:A20"/>
-    <sortCondition ref="E2:E20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J22">
+    <sortCondition ref="A2:A22"/>
+    <sortCondition ref="E2:E22"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{B5B0A2DA-BF41-44E6-8CB1-FFD0C842EB0D}"/>
@@ -1224,17 +1288,19 @@
     <hyperlink ref="J9" r:id="rId8" xr:uid="{A9B2E8AD-B35C-4B7B-9CFA-C60C3E48FF8E}"/>
     <hyperlink ref="J12" r:id="rId9" xr:uid="{C83BCA64-5987-4702-96B8-AA89D02EC606}"/>
     <hyperlink ref="J13" r:id="rId10" xr:uid="{1338D021-D41F-4562-9459-F4EBED772CA2}"/>
-    <hyperlink ref="J16" r:id="rId11" xr:uid="{4F71322C-132C-4277-86B6-353B782DE677}"/>
-    <hyperlink ref="J17" r:id="rId12" xr:uid="{526B41A9-16F2-48C0-8BF7-B2AC43DE63F6}"/>
-    <hyperlink ref="J18" r:id="rId13" xr:uid="{1061C673-0AA4-4832-B13E-732AC630F304}"/>
-    <hyperlink ref="J19" r:id="rId14" xr:uid="{31B81946-E9AF-4893-9136-8784A247F4D8}"/>
-    <hyperlink ref="J20" r:id="rId15" xr:uid="{EFE3F3E9-20F8-4742-91AB-42B500018988}"/>
+    <hyperlink ref="J17" r:id="rId11" xr:uid="{4F71322C-132C-4277-86B6-353B782DE677}"/>
+    <hyperlink ref="J18" r:id="rId12" xr:uid="{526B41A9-16F2-48C0-8BF7-B2AC43DE63F6}"/>
+    <hyperlink ref="J19" r:id="rId13" xr:uid="{1061C673-0AA4-4832-B13E-732AC630F304}"/>
+    <hyperlink ref="J21" r:id="rId14" xr:uid="{31B81946-E9AF-4893-9136-8784A247F4D8}"/>
+    <hyperlink ref="J22" r:id="rId15" xr:uid="{EFE3F3E9-20F8-4742-91AB-42B500018988}"/>
     <hyperlink ref="J10" r:id="rId16" xr:uid="{5C357E62-6D38-4C8C-B570-29B66A8EC853}"/>
-    <hyperlink ref="J15" r:id="rId17" xr:uid="{A2806556-C3B0-4D15-92FD-5BB5B6FCC757}"/>
-    <hyperlink ref="J14" r:id="rId18" xr:uid="{DAD3A0BC-03C6-4C61-901D-B527D36CDF2D}"/>
+    <hyperlink ref="J16" r:id="rId17" xr:uid="{A2806556-C3B0-4D15-92FD-5BB5B6FCC757}"/>
+    <hyperlink ref="J15" r:id="rId18" xr:uid="{DAD3A0BC-03C6-4C61-901D-B527D36CDF2D}"/>
     <hyperlink ref="J11" r:id="rId19" xr:uid="{222813F6-56E1-4AAD-8F50-094CFB58E4EC}"/>
+    <hyperlink ref="J20" r:id="rId20" xr:uid="{EFBB8817-D044-49A9-BA79-2FD346FC1E8D}"/>
+    <hyperlink ref="J14" r:id="rId21" xr:uid="{BA59AE28-C4CC-4CFD-99ED-42B4E77C79A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/Literatura.xlsx
+++ b/Literatura.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acuna\Dropbox\Observatorio de Percepciones Económicas\Literatura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B872A33F-3B5D-4845-AD59-49434E59FCFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A95B9B-264C-4E20-8920-5E7B4104BCCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8B0C767-6324-4008-98CB-D9303E612183}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="100">
   <si>
     <t>Autor 1</t>
   </si>
@@ -316,6 +316,24 @@
   </si>
   <si>
     <t>Educación</t>
+  </si>
+  <si>
+    <t>Cerda R</t>
+  </si>
+  <si>
+    <t>Silva A</t>
+  </si>
+  <si>
+    <t>Valente J</t>
+  </si>
+  <si>
+    <t>Impact of economic uncertainty in a small open economy: the case of Chile</t>
+  </si>
+  <si>
+    <t>Applied Economics</t>
+  </si>
+  <si>
+    <t>https://ideas.repec.org/a/taf/applec/v50y2018i26p2894-2908.html</t>
   </si>
 </sst>
 </file>
@@ -693,11 +711,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2235D4-8424-4B68-B70D-6727FF064B06}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:J22"/>
+      <selection pane="bottomLeft" sqref="A1:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,74 +946,77 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
       </c>
       <c r="E11" s="2">
         <v>2020</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -1004,96 +1025,99 @@
         <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
       </c>
       <c r="E14" s="2">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I14" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="E15" s="2">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -1102,10 +1126,10 @@
         <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1113,10 +1137,10 @@
         <v>44</v>
       </c>
       <c r="E16" s="2">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -1125,33 +1149,33 @@
         <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E17" s="2">
-        <v>2009</v>
+        <v>2021</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1162,19 +1186,19 @@
         <v>2009</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G18" t="s">
         <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I18" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1182,22 +1206,22 @@
         <v>48</v>
       </c>
       <c r="E19" s="2">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
         <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I19" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1205,59 +1229,56 @@
         <v>48</v>
       </c>
       <c r="E20" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E21" s="2">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E22" s="2">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
@@ -1269,13 +1290,39 @@
         <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J22">
-    <sortCondition ref="A2:A22"/>
-    <sortCondition ref="E2:E22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J23">
+    <sortCondition ref="A2:A23"/>
+    <sortCondition ref="E2:E23"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{B5B0A2DA-BF41-44E6-8CB1-FFD0C842EB0D}"/>
@@ -1285,22 +1332,23 @@
     <hyperlink ref="J6" r:id="rId5" xr:uid="{EA69ADCA-5822-4313-B505-A8BBBB968424}"/>
     <hyperlink ref="J7" r:id="rId6" xr:uid="{CEA33F0E-428C-4355-BD94-A03EDCE4C81D}"/>
     <hyperlink ref="J8" r:id="rId7" xr:uid="{050057B5-5715-4916-A5EA-F49F14C2FFF6}"/>
-    <hyperlink ref="J9" r:id="rId8" xr:uid="{A9B2E8AD-B35C-4B7B-9CFA-C60C3E48FF8E}"/>
-    <hyperlink ref="J12" r:id="rId9" xr:uid="{C83BCA64-5987-4702-96B8-AA89D02EC606}"/>
-    <hyperlink ref="J13" r:id="rId10" xr:uid="{1338D021-D41F-4562-9459-F4EBED772CA2}"/>
-    <hyperlink ref="J17" r:id="rId11" xr:uid="{4F71322C-132C-4277-86B6-353B782DE677}"/>
-    <hyperlink ref="J18" r:id="rId12" xr:uid="{526B41A9-16F2-48C0-8BF7-B2AC43DE63F6}"/>
-    <hyperlink ref="J19" r:id="rId13" xr:uid="{1061C673-0AA4-4832-B13E-732AC630F304}"/>
-    <hyperlink ref="J21" r:id="rId14" xr:uid="{31B81946-E9AF-4893-9136-8784A247F4D8}"/>
-    <hyperlink ref="J22" r:id="rId15" xr:uid="{EFE3F3E9-20F8-4742-91AB-42B500018988}"/>
-    <hyperlink ref="J10" r:id="rId16" xr:uid="{5C357E62-6D38-4C8C-B570-29B66A8EC853}"/>
-    <hyperlink ref="J16" r:id="rId17" xr:uid="{A2806556-C3B0-4D15-92FD-5BB5B6FCC757}"/>
-    <hyperlink ref="J15" r:id="rId18" xr:uid="{DAD3A0BC-03C6-4C61-901D-B527D36CDF2D}"/>
-    <hyperlink ref="J11" r:id="rId19" xr:uid="{222813F6-56E1-4AAD-8F50-094CFB58E4EC}"/>
-    <hyperlink ref="J20" r:id="rId20" xr:uid="{EFBB8817-D044-49A9-BA79-2FD346FC1E8D}"/>
-    <hyperlink ref="J14" r:id="rId21" xr:uid="{BA59AE28-C4CC-4CFD-99ED-42B4E77C79A3}"/>
+    <hyperlink ref="J10" r:id="rId8" xr:uid="{A9B2E8AD-B35C-4B7B-9CFA-C60C3E48FF8E}"/>
+    <hyperlink ref="J13" r:id="rId9" xr:uid="{C83BCA64-5987-4702-96B8-AA89D02EC606}"/>
+    <hyperlink ref="J14" r:id="rId10" xr:uid="{1338D021-D41F-4562-9459-F4EBED772CA2}"/>
+    <hyperlink ref="J18" r:id="rId11" xr:uid="{4F71322C-132C-4277-86B6-353B782DE677}"/>
+    <hyperlink ref="J19" r:id="rId12" xr:uid="{526B41A9-16F2-48C0-8BF7-B2AC43DE63F6}"/>
+    <hyperlink ref="J20" r:id="rId13" xr:uid="{1061C673-0AA4-4832-B13E-732AC630F304}"/>
+    <hyperlink ref="J22" r:id="rId14" xr:uid="{31B81946-E9AF-4893-9136-8784A247F4D8}"/>
+    <hyperlink ref="J23" r:id="rId15" xr:uid="{EFE3F3E9-20F8-4742-91AB-42B500018988}"/>
+    <hyperlink ref="J11" r:id="rId16" xr:uid="{5C357E62-6D38-4C8C-B570-29B66A8EC853}"/>
+    <hyperlink ref="J17" r:id="rId17" xr:uid="{A2806556-C3B0-4D15-92FD-5BB5B6FCC757}"/>
+    <hyperlink ref="J16" r:id="rId18" xr:uid="{DAD3A0BC-03C6-4C61-901D-B527D36CDF2D}"/>
+    <hyperlink ref="J12" r:id="rId19" xr:uid="{222813F6-56E1-4AAD-8F50-094CFB58E4EC}"/>
+    <hyperlink ref="J21" r:id="rId20" xr:uid="{EFBB8817-D044-49A9-BA79-2FD346FC1E8D}"/>
+    <hyperlink ref="J15" r:id="rId21" xr:uid="{BA59AE28-C4CC-4CFD-99ED-42B4E77C79A3}"/>
+    <hyperlink ref="J9" r:id="rId22" xr:uid="{AF8EF041-96EB-4DA9-AD92-6F2EABDEEE4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/Literatura.xlsx
+++ b/Literatura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acuna\Dropbox\Observatorio de Percepciones Económicas\Literatura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A95B9B-264C-4E20-8920-5E7B4104BCCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F4269C-4BBD-4130-8D57-1BFC340E09E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8B0C767-6324-4008-98CB-D9303E612183}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="103">
   <si>
     <t>Autor 1</t>
   </si>
@@ -334,6 +334,15 @@
   </si>
   <si>
     <t>https://ideas.repec.org/a/taf/applec/v50y2018i26p2894-2908.html</t>
+  </si>
+  <si>
+    <t>Una nota introductoria a la encuesta de Expectativas Económicas</t>
+  </si>
+  <si>
+    <t>Estudios Económicos Estadísticos</t>
+  </si>
+  <si>
+    <t>https://ideas.repec.org/p/chb/bcchee/82.html</t>
   </si>
 </sst>
 </file>
@@ -711,11 +720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2235D4-8424-4B68-B70D-6727FF064B06}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:J23"/>
+      <selection pane="bottomLeft" sqref="A1:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,22 +1238,22 @@
         <v>48</v>
       </c>
       <c r="E20" s="2">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s">
         <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1252,59 +1261,56 @@
         <v>48</v>
       </c>
       <c r="E21" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E22" s="2">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I22" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E23" s="2">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G23" t="s">
         <v>20</v>
@@ -1316,13 +1322,39 @@
         <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J23">
-    <sortCondition ref="A2:A23"/>
-    <sortCondition ref="E2:E23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J24">
+    <sortCondition ref="A2:A24"/>
+    <sortCondition ref="E2:E24"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{B5B0A2DA-BF41-44E6-8CB1-FFD0C842EB0D}"/>
@@ -1337,18 +1369,19 @@
     <hyperlink ref="J14" r:id="rId10" xr:uid="{1338D021-D41F-4562-9459-F4EBED772CA2}"/>
     <hyperlink ref="J18" r:id="rId11" xr:uid="{4F71322C-132C-4277-86B6-353B782DE677}"/>
     <hyperlink ref="J19" r:id="rId12" xr:uid="{526B41A9-16F2-48C0-8BF7-B2AC43DE63F6}"/>
-    <hyperlink ref="J20" r:id="rId13" xr:uid="{1061C673-0AA4-4832-B13E-732AC630F304}"/>
-    <hyperlink ref="J22" r:id="rId14" xr:uid="{31B81946-E9AF-4893-9136-8784A247F4D8}"/>
-    <hyperlink ref="J23" r:id="rId15" xr:uid="{EFE3F3E9-20F8-4742-91AB-42B500018988}"/>
+    <hyperlink ref="J21" r:id="rId13" xr:uid="{1061C673-0AA4-4832-B13E-732AC630F304}"/>
+    <hyperlink ref="J23" r:id="rId14" xr:uid="{31B81946-E9AF-4893-9136-8784A247F4D8}"/>
+    <hyperlink ref="J24" r:id="rId15" xr:uid="{EFE3F3E9-20F8-4742-91AB-42B500018988}"/>
     <hyperlink ref="J11" r:id="rId16" xr:uid="{5C357E62-6D38-4C8C-B570-29B66A8EC853}"/>
     <hyperlink ref="J17" r:id="rId17" xr:uid="{A2806556-C3B0-4D15-92FD-5BB5B6FCC757}"/>
     <hyperlink ref="J16" r:id="rId18" xr:uid="{DAD3A0BC-03C6-4C61-901D-B527D36CDF2D}"/>
     <hyperlink ref="J12" r:id="rId19" xr:uid="{222813F6-56E1-4AAD-8F50-094CFB58E4EC}"/>
-    <hyperlink ref="J21" r:id="rId20" xr:uid="{EFBB8817-D044-49A9-BA79-2FD346FC1E8D}"/>
+    <hyperlink ref="J22" r:id="rId20" xr:uid="{EFBB8817-D044-49A9-BA79-2FD346FC1E8D}"/>
     <hyperlink ref="J15" r:id="rId21" xr:uid="{BA59AE28-C4CC-4CFD-99ED-42B4E77C79A3}"/>
     <hyperlink ref="J9" r:id="rId22" xr:uid="{AF8EF041-96EB-4DA9-AD92-6F2EABDEEE4B}"/>
+    <hyperlink ref="J20" r:id="rId23" xr:uid="{B34E5C50-EEC1-4E0F-8236-B74702CF31A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
--- a/Literatura.xlsx
+++ b/Literatura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acuna\Dropbox\Observatorio de Percepciones Económicas\Literatura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F4269C-4BBD-4130-8D57-1BFC340E09E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6341151D-384E-456E-B954-0782F1DB9841}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8B0C767-6324-4008-98CB-D9303E612183}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="108">
   <si>
     <t>Autor 1</t>
   </si>
@@ -343,6 +343,21 @@
   </si>
   <si>
     <t>https://ideas.repec.org/p/chb/bcchee/82.html</t>
+  </si>
+  <si>
+    <t>Estimación de la probabilidad de recesión en Chile</t>
+  </si>
+  <si>
+    <t>González H</t>
+  </si>
+  <si>
+    <t>Badinella C</t>
+  </si>
+  <si>
+    <t>Documentos de Trabajo (Clapes UC)</t>
+  </si>
+  <si>
+    <t>https://clapesuc.cl/indicadores/probabilidad-de-recesion-en-chile</t>
   </si>
 </sst>
 </file>
@@ -720,11 +735,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2235D4-8424-4B68-B70D-6727FF064B06}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:J24"/>
+      <selection pane="bottomLeft" sqref="A1:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,74 +999,77 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="E10" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
       </c>
       <c r="E12" s="2">
         <v>2020</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -1060,96 +1078,99 @@
         <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
       </c>
       <c r="E15" s="2">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="E16" s="2">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -1158,10 +1179,10 @@
         <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1169,10 +1190,10 @@
         <v>44</v>
       </c>
       <c r="E17" s="2">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
@@ -1181,33 +1202,33 @@
         <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2">
-        <v>2009</v>
+        <v>2021</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1218,19 +1239,19 @@
         <v>2009</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
         <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I19" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1238,22 +1259,22 @@
         <v>48</v>
       </c>
       <c r="E20" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F20" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
         <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1261,22 +1282,22 @@
         <v>48</v>
       </c>
       <c r="E21" s="2">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="G21" t="s">
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1284,59 +1305,56 @@
         <v>48</v>
       </c>
       <c r="E22" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="I22" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E23" s="2">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E24" s="2">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G24" t="s">
         <v>20</v>
@@ -1348,13 +1366,39 @@
         <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J24">
-    <sortCondition ref="A2:A24"/>
-    <sortCondition ref="E2:E24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J25">
+    <sortCondition ref="A2:A25"/>
+    <sortCondition ref="E2:E25"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{B5B0A2DA-BF41-44E6-8CB1-FFD0C842EB0D}"/>
@@ -1364,24 +1408,25 @@
     <hyperlink ref="J6" r:id="rId5" xr:uid="{EA69ADCA-5822-4313-B505-A8BBBB968424}"/>
     <hyperlink ref="J7" r:id="rId6" xr:uid="{CEA33F0E-428C-4355-BD94-A03EDCE4C81D}"/>
     <hyperlink ref="J8" r:id="rId7" xr:uid="{050057B5-5715-4916-A5EA-F49F14C2FFF6}"/>
-    <hyperlink ref="J10" r:id="rId8" xr:uid="{A9B2E8AD-B35C-4B7B-9CFA-C60C3E48FF8E}"/>
-    <hyperlink ref="J13" r:id="rId9" xr:uid="{C83BCA64-5987-4702-96B8-AA89D02EC606}"/>
-    <hyperlink ref="J14" r:id="rId10" xr:uid="{1338D021-D41F-4562-9459-F4EBED772CA2}"/>
-    <hyperlink ref="J18" r:id="rId11" xr:uid="{4F71322C-132C-4277-86B6-353B782DE677}"/>
-    <hyperlink ref="J19" r:id="rId12" xr:uid="{526B41A9-16F2-48C0-8BF7-B2AC43DE63F6}"/>
-    <hyperlink ref="J21" r:id="rId13" xr:uid="{1061C673-0AA4-4832-B13E-732AC630F304}"/>
-    <hyperlink ref="J23" r:id="rId14" xr:uid="{31B81946-E9AF-4893-9136-8784A247F4D8}"/>
-    <hyperlink ref="J24" r:id="rId15" xr:uid="{EFE3F3E9-20F8-4742-91AB-42B500018988}"/>
-    <hyperlink ref="J11" r:id="rId16" xr:uid="{5C357E62-6D38-4C8C-B570-29B66A8EC853}"/>
-    <hyperlink ref="J17" r:id="rId17" xr:uid="{A2806556-C3B0-4D15-92FD-5BB5B6FCC757}"/>
-    <hyperlink ref="J16" r:id="rId18" xr:uid="{DAD3A0BC-03C6-4C61-901D-B527D36CDF2D}"/>
-    <hyperlink ref="J12" r:id="rId19" xr:uid="{222813F6-56E1-4AAD-8F50-094CFB58E4EC}"/>
-    <hyperlink ref="J22" r:id="rId20" xr:uid="{EFBB8817-D044-49A9-BA79-2FD346FC1E8D}"/>
-    <hyperlink ref="J15" r:id="rId21" xr:uid="{BA59AE28-C4CC-4CFD-99ED-42B4E77C79A3}"/>
+    <hyperlink ref="J11" r:id="rId8" xr:uid="{A9B2E8AD-B35C-4B7B-9CFA-C60C3E48FF8E}"/>
+    <hyperlink ref="J14" r:id="rId9" xr:uid="{C83BCA64-5987-4702-96B8-AA89D02EC606}"/>
+    <hyperlink ref="J15" r:id="rId10" xr:uid="{1338D021-D41F-4562-9459-F4EBED772CA2}"/>
+    <hyperlink ref="J19" r:id="rId11" xr:uid="{4F71322C-132C-4277-86B6-353B782DE677}"/>
+    <hyperlink ref="J20" r:id="rId12" xr:uid="{526B41A9-16F2-48C0-8BF7-B2AC43DE63F6}"/>
+    <hyperlink ref="J22" r:id="rId13" xr:uid="{1061C673-0AA4-4832-B13E-732AC630F304}"/>
+    <hyperlink ref="J24" r:id="rId14" xr:uid="{31B81946-E9AF-4893-9136-8784A247F4D8}"/>
+    <hyperlink ref="J25" r:id="rId15" xr:uid="{EFE3F3E9-20F8-4742-91AB-42B500018988}"/>
+    <hyperlink ref="J12" r:id="rId16" xr:uid="{5C357E62-6D38-4C8C-B570-29B66A8EC853}"/>
+    <hyperlink ref="J18" r:id="rId17" xr:uid="{A2806556-C3B0-4D15-92FD-5BB5B6FCC757}"/>
+    <hyperlink ref="J17" r:id="rId18" xr:uid="{DAD3A0BC-03C6-4C61-901D-B527D36CDF2D}"/>
+    <hyperlink ref="J13" r:id="rId19" xr:uid="{222813F6-56E1-4AAD-8F50-094CFB58E4EC}"/>
+    <hyperlink ref="J23" r:id="rId20" xr:uid="{EFBB8817-D044-49A9-BA79-2FD346FC1E8D}"/>
+    <hyperlink ref="J16" r:id="rId21" xr:uid="{BA59AE28-C4CC-4CFD-99ED-42B4E77C79A3}"/>
     <hyperlink ref="J9" r:id="rId22" xr:uid="{AF8EF041-96EB-4DA9-AD92-6F2EABDEEE4B}"/>
-    <hyperlink ref="J20" r:id="rId23" xr:uid="{B34E5C50-EEC1-4E0F-8236-B74702CF31A7}"/>
+    <hyperlink ref="J21" r:id="rId23" xr:uid="{B34E5C50-EEC1-4E0F-8236-B74702CF31A7}"/>
+    <hyperlink ref="J10" r:id="rId24" xr:uid="{5EC9020A-822D-4115-AB4C-3BBF53510871}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>